--- a/Extraer_por_elemento_MEGL.xlsx
+++ b/Extraer_por_elemento_MEGL.xlsx
@@ -512,7 +512,8 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Porcentaje de personas satisfechas con la atención en establecimientos médicos bajo responsabilidad municipal</t>
+          <t>Porcentaje de personas satisfechas con las campañas y actividades de promoción de salud
+realizadas por la municipalidad</t>
         </is>
       </c>
     </row>
@@ -534,7 +535,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Promover el acceso a servicios educativos,  deportivos y recreacionales con enfoque intercultural e inclusivo para la población local</t>
+          <t>Promover el acceso a servicios educativos, deportivos y recreacionales con enfoque intercultural e inclusivo para la población local</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -615,7 +616,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mejorar el acceso a servicios de protección social y defensa de derechos de la población vulnerable de la localidad</t>
+          <t>Mejorar el acceso a servicios de protección social y defensa de derechos de la población en situación de vulnerabilidad de la localidad</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -723,7 +724,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mejorar el sistema de transporte y  transitabilidad en beneficio de la población local</t>
+          <t>Mejorar el servicio de transporte y  transitabilidad en beneficio de la población local</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -770,7 +771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1314,7 +1315,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Número de instrumentos para la estimación del riesgo de desastre implementados en la localidad</t>
+          <t>Número de instrumentos para la estimación del riesgo de desastres implementados en la localidad</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1342,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Número de asistencia técnicas en GRD realizadas en zonas vulnerables en la localidad</t>
+          <t>Número de asistencias técnicas en GRD realizadas en zonas vulnerables en la localidad</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1369,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Número de mecanismos de vigilancia operativos para la comunicación de alertas tempradas en la localidad</t>
+          <t>Número de mecanismos de vigilancia operativos para la comunicación de alertas tempranas en la localidad</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1484,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Desarrollo e Inclusión Social</t>
+          <t>GRD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1493,17 +1494,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AEI.06.01</t>
+          <t>AEI.05.08</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Servicios de registro civil oportunos para la población local</t>
+          <t>Infraestructura para la prevención y mitigación de riesgos de desastres adecuada en la localidad.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Porcentaje de atenciones de registro civil oportunas en la localidad</t>
+          <t>Porcentaje de PIPs de GRD del banco de proyectos de la municipalidad</t>
         </is>
       </c>
     </row>
@@ -1520,17 +1521,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AEI.06.02</t>
+          <t>AEI.06.01</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Programas de apoyo social ejecutados en beneficio de la población vulnerable en la localidad</t>
+          <t>Servicios de registro civil oportunos para la población local</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Número de atenciones en los programas municipales de apoyo social en la localidad</t>
+          <t>Porcentaje de atenciones de registro civil oportunas en la localidad</t>
         </is>
       </c>
     </row>
@@ -1547,17 +1548,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AEI.06.03</t>
+          <t>AEI.06.02</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Registro para la atención de programas de reparaciones, de forma oportuna para las víctimas y familiares de violencia en la localidad</t>
+          <t>Programas de apoyo social ejecutados en beneficio de la población en situación de vulnerabilidad en la localidad</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Número de registros efectivos para la atención de programas de reparaciones para las víctimas y familiares de violencia en la localidad</t>
+          <t>Número de atenciones en los programas municipales de apoyo social en la localidad</t>
         </is>
       </c>
     </row>
@@ -1574,17 +1575,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AEI.06.04</t>
+          <t>AEI.06.03</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Servicio de defensa y promoción de derechos de manera permanente en beneficio de la población vulnerable de la localidad</t>
+          <t>Registro para la atención de programas de reparaciones, de forma oportuna para las víctimas y familiares de violencia en la localidad</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Número de casos atendidos por el servicio social municipal para la defensa y promoción de derechos</t>
+          <t>Número de registros efectivos para la atención de programas de reparaciones para las víctimas y familiares de violencia en la localidad</t>
         </is>
       </c>
     </row>
@@ -1601,24 +1602,24 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AEI.06.05</t>
+          <t>AEI.06.04</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Empadronamiento socioeconómico oportuno de hogares en situación de pobreza o vulnerabilidad en la localidad</t>
+          <t>Servicio de defensa y promoción de derechos de manera permanente en beneficio de la población en situación de vulnerabilidad de la localidad</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Número de registros actualizados en el Sistema de Focalización de Hogares (SISFOH)</t>
+          <t>Número de casos atendidos por el servicio social municipal para la defensa y promoción de derechos</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Seguridad Ciudadana</t>
+          <t>Desarrollo e Inclusión Social</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1628,17 +1629,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AEI.07.01</t>
+          <t>AEI.06.05</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Seguridad ciudadana comunitaria operativa para la protección de la población de la población local</t>
+          <t>Empadronamiento socioeconómico oportuno de hogares en situación de pobreza o vulnerabilidad en la localidad</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Porcentaje de rondas ciudadanas de seguridad con equipamiento adecuado</t>
+          <t>Número de registros actualizados en el Sistema de Focalización de Hogares (SISFOH)</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1656,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AEI.07.02</t>
+          <t>AEI.07.01</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Patrullaje municipal efectivo en beneficio de la población local</t>
+          <t>Seguridad ciudadana comunitaria operativa para la protección de la población local</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Promedio semanal de jornadas de patrullaje integrado por zona en la localidad</t>
+          <t>Porcentaje de rondas ciudadanas de seguridad con equipamiento adecuado</t>
         </is>
       </c>
     </row>
@@ -1682,24 +1683,24 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AEI.07.03</t>
+          <t>AEI.07.02</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sistema de video vigilancia operativo para la protección y seguridad de la población local</t>
+          <t>Patrullaje municipal efectivo en beneficio de la población local</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Porcentaje de cámaras de video vigilancia operativas en la localidad</t>
+          <t>Promedio semanal de jornadas de patrullaje integrado por zona en la localidad</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Saneamiento</t>
+          <t>Seguridad Ciudadana</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1709,17 +1710,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AEI.08.01</t>
+          <t>AEI.07.03</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Asistencia técnica en sostenibilidad de los servicios de agua potable y saneamiento de manera continua a la(s) Junta(s) Administradoras de Servicios de Saneamiento de la localidad</t>
+          <t>Sistema de video vigilancia operativo para la protección y seguridad de la población local</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Número de asistencia técnicas a las Juntas Administradoras de Servicios de Saneamiento (JASS)</t>
+          <t>Porcentaje de cámaras de video vigilancia operativas en la localidad</t>
         </is>
       </c>
     </row>
@@ -1736,17 +1737,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AEI.08.02</t>
+          <t>AEI.08.01</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Servicio de agua potable de calidad para la población local</t>
+          <t>Asistencia técnica en sostenibilidad de los servicios de agua potable y saneamiento de manera continua a la(s) Junta(s) Administradoras de Servicios de Saneamiento de la localidad</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Promedio diario de horas de servicio de agua potable en la localidad</t>
+          <t>Número de asistencias técnicas a las Juntas Administradoras de Servicios de Saneamiento (JASS)</t>
         </is>
       </c>
     </row>
@@ -1763,24 +1764,24 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AEI.08.03</t>
+          <t>AEI.08.02</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Servicio de alcantarillado sanitario y tratamiento de aguas residuales  eficiente para la población local</t>
+          <t>Servicio de agua potable de calidad para la población local</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Porcentaje de estaciones de bombeo en condiciones operativas adecuadas</t>
+          <t>Promedio diario de horas de servicio de agua potable en la localidad</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Economía</t>
+          <t>Saneamiento</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1790,17 +1791,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AEI.09.01</t>
+          <t>AEI.08.03</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fiscalización y control del cumplimiento normativo permanente a los agentes económicos de la localidad </t>
+          <t>Servicio de alcantarillado sanitario y tratamiento de aguas residuales  eficiente para la población local</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Número de fiscalizaciones de licencias de funcionamiento realizadas de manera efectiva a micro y pequeñas empresas </t>
+          <t>Porcentaje de estaciones de bombeo en condiciones operativas adecuadas</t>
         </is>
       </c>
     </row>
@@ -1817,17 +1818,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AEI.09.02</t>
+          <t>AEI.09.01</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Eventos turísticos vinculados al patrimonio cultural y natural con enfoque sostenible, dirigidos a emprendedores, asociaciones y otros actores del turismo y la cultura de la localidad</t>
+          <t xml:space="preserve">Fiscalización y control del cumplimiento normativo permanente a los agentes económicos de la localidad </t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Número de eventos de promoción turística realizados por la municipalidad </t>
+          <t xml:space="preserve">Número de fiscalizaciones de licencias de funcionamiento realizadas de manera efectiva a micro y pequeñas empresas </t>
         </is>
       </c>
     </row>
@@ -1844,17 +1845,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AEI.09.03</t>
+          <t>AEI.09.02</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Asistencia técnica en actividades económicas locales especializada dirigida a los agentes económicos de la localidad</t>
+          <t>Eventos turísticos vinculados al patrimonio cultural y natural con enfoque sostenible, dirigidos a emprendedores, asociaciones y otros actores del turismo y la cultura de la localidad</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Número de asistencias técnicas para el fortalecimiento empresarial a micro y pequeños empresarios de la localidad</t>
+          <t xml:space="preserve">Número de eventos de promoción turística realizados por la municipalidad </t>
         </is>
       </c>
     </row>
@@ -1871,17 +1872,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>AEI.09.04</t>
+          <t>AEI.09.03</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Campañas de promoción de la formalización de micro y pequeñas empresas accesibles para la población local</t>
+          <t>Asistencia técnica en actividades económicas locales especializada dirigida a los agentes económicos de la localidad</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Número de campañas implementadas para la formalización de micro y pequeñas empresas</t>
+          <t>Número de asistencias técnicas para el fortalecimiento empresarial a micro y pequeños empresarios de la localidad</t>
         </is>
       </c>
     </row>
@@ -1898,24 +1899,24 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AEI.09.05</t>
+          <t>AEI.09.04</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Eventos de articulación comercial y consumo de productos locales organizados con enfoque sostenible para agentes comerciales en la localidad</t>
+          <t>Campañas de promoción de la formalización de micro y pequeñas empresas accesibles para la población local</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Número de eventos para la promoción de la comercialización y consumo de productos locales organizados por la municipalidad</t>
+          <t>Número de campañas implementadas para la formalización de micro y pequeñas empresas</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Economía</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1925,24 +1926,24 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AEI.10.01</t>
+          <t>AEI.09.05</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sistema de señalización de tránsito con mantenimiento adecuado en beneficio de la población de la localidad</t>
+          <t>Eventos de articulación comercial y consumo de productos locales organizados con enfoque sostenible para agentes comerciales en la localidad</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Porcentaje de vías locales con señalización adecuada</t>
+          <t>Número de eventos para la promoción de la comercialización y consumo de productos locales organizados por la municipalidad</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Economía</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1952,17 +1953,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AEI.10.02</t>
+          <t>AEI.09.06</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Capacitación en materia de educación vial oportuna dirigida a la población local</t>
+          <t>Construcción, equipamiento y mantenimiento de infraestructura productiva adecuada y disponible para los productores agropecuarios y pequeños empresarios locales</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Número de eventos educativos realizados para la promoción de la educación vial</t>
+          <t>Número de infraestructuras productivas construidas para productores agropecuarios y pequeños empresarios.</t>
         </is>
       </c>
     </row>
@@ -1979,17 +1980,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AEI.10.03</t>
+          <t>AEI.10.01</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mantenimiento de caminos vecinales y de herradura permanente en beneficio de la población local</t>
+          <t>Sistema de señalización de tránsito con mantenimiento adecuado en beneficio de la población de la localidad</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Porcentaje de caminos vecinales en condiciones de transitabilidad</t>
+          <t>Porcentaje de vías locales con señalización adecuada</t>
         </is>
       </c>
     </row>
@@ -2006,24 +2007,24 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>AEI.10.04</t>
+          <t>AEI.10.02</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Supervisión y control del transporte público con eficiencia y cumplimiento normativo a los operadores de transporte local</t>
+          <t>Capacitación en materia de educación vial oportuna dirigida a la población local</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Número de fiscalizaciones a empresas prestadoras del servicio de transporte público en la localidad</t>
+          <t>Número de eventos educativos realizados para la promoción de la educación vial</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Institucional</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2033,24 +2034,24 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AEI.11.01</t>
+          <t>AEI.10.03</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Capacitación para el desarrollo de competencias o conocimientos ejecutadas en beneficio del personal de la municipalidad. </t>
+          <t>Mantenimiento de caminos vecinales y de herradura permanente en beneficio de la población local</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Porcentaje de acciones de capacitación ejecutadas en el marco del PDP</t>
+          <t>Porcentaje de caminos vecinales en condiciones de transitabilidad</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Institucional</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2060,17 +2061,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AEI.11.02</t>
+          <t>AEI.10.04</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gobierno abierto implementado en la municipalidad </t>
+          <t>Supervisión y control del transporte público con eficiencia y cumplimiento normativo a los operadores de transporte local</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Porcentaje de actas y acuerdos municipales difundidos en redes sociales y portales web municipales</t>
+          <t>Número de fiscalizaciones a empresas prestadoras del servicio de transporte público en la localidad</t>
         </is>
       </c>
     </row>
@@ -2087,17 +2088,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>AEI.11.03</t>
+          <t>AEI.11.01</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Servicios administrativos implementados eficientemente en la municipalidad</t>
+          <t xml:space="preserve">Capacitación para el desarrollo de competencias o conocimientos ejecutadas en beneficio del personal de la municipalidad. </t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Porcentaje de expedientes recibidos por mesa de partes atendidos de manera oportuna</t>
+          <t>Porcentaje de acciones de capacitación ejecutadas en el marco del PDP</t>
         </is>
       </c>
     </row>
@@ -2114,17 +2115,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AEI.11.04</t>
+          <t>AEI.11.02</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Recaudación tributaria efectiva en la municipalidad</t>
+          <t xml:space="preserve">Gobierno abierto implementado en la municipalidad </t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Número de campañas municipales para fortalecer la recaudación tributaria en la localidad</t>
+          <t>Porcentaje de actas y acuerdos municipales difundidos en redes sociales y portales web municipales</t>
         </is>
       </c>
     </row>
@@ -2141,17 +2142,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>AEI.11.05</t>
+          <t>AEI.11.03</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Instrumentos de gestión implementados en la municipalidad</t>
+          <t>Servicios administrativos implementados eficientemente en la municipalidad</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Porcentaje de instrumentos de gestión actualizados</t>
+          <t>Porcentaje de expedientes recibidos por mesa de partes atendidos de manera oportuna</t>
         </is>
       </c>
     </row>
@@ -2168,15 +2169,69 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>AEI.11.04</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Recaudación tributaria efectiva en la municipalidad</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Número de campañas municipales para fortalecer la recaudación tributaria en la localidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>AEI</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>AEI.11.05</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Instrumentos de gestión implementados en la municipalidad</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Porcentaje de instrumentos de gestión actualizados</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>AEI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>AEI.11.06</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Gobierno digital implementado en los procesos y servicios de la municipalidad</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>Porcentaje de servicios administrativos municipales digitalizados</t>
         </is>
@@ -2193,7 +2248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2246,7 +2301,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Formulación/Actualización de instrumentos de planificación territorial  (PAT, PDU, otros)</t>
+          <t>Formulación/Actualización de instrumentos de planificación territorial (PAT, PDU, otros)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2273,7 +2328,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Monitoreo de implementación de instrumentos de planificacipon territorial  (PAT, PDU, otros)</t>
+          <t>Monitoreo de implementación de instrumentos de planificación territorial (PAT, PDU, otros)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4307,7 +4362,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Desarrollo e Inclusión Social</t>
+          <t>GRD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4317,24 +4372,24 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>AO.06.01.01</t>
+          <t>AO 05.08.01</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Inscripción de nacimientos, matrimonios y defunciones dentro del plazo legal establecido</t>
+          <t>Planificación de intervenciones para la prevención y mitigación del riesgo de desastres</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Trámite (código 517)</t>
+          <t>Informe (Código 060)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Desarrollo e Inclusión Social</t>
+          <t>GRD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4344,24 +4399,24 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>AO.06.01.02</t>
+          <t>AO 05.08.02</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Emisión de copias certificadas de partidas registrales en el marco de atención oportuna</t>
+          <t>Intervención para la prevención y mitigación del riesgo de desastres</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Trámite (código 517)</t>
+          <t>Acción (código 001)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Desarrollo e Inclusión Social</t>
+          <t>GRD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4371,17 +4426,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>AO.06.02.01</t>
+          <t>AO 05.08.03</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Distribución de alimentos del programa vaso de leche a población en condición de vulnerabilidad</t>
+          <t>Elaboración de proyectos de inversión para la prevención y mitigación del riesgo de desastres</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Persona atendida  (código 087)</t>
+          <t>Proyecto (Código 096)</t>
         </is>
       </c>
     </row>
@@ -4398,17 +4453,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>AO.06.02.02</t>
+          <t>AO.06.01.01</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Ejecución de programas municipales de apoyo alimentario con participación comunitaria</t>
+          <t>Inscripción de nacimientos, matrimonios y defunciones dentro del plazo legal establecido</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Persona atendida  (código 087)</t>
+          <t>Trámite (código 517)</t>
         </is>
       </c>
     </row>
@@ -4425,17 +4480,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>AO.06.02.03</t>
+          <t>AO.06.01.02</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Orientación o atención psicosocial comunitaria a personas vulnerables</t>
+          <t>Emisión de copias certificadas de partidas registrales en el marco de atención oportuna</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Persona atendida  (código 087)</t>
+          <t>Trámite (código 517)</t>
         </is>
       </c>
     </row>
@@ -4452,17 +4507,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>AO.06.03.01</t>
+          <t>AO.06.02.01</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Suscripción de convenios para implementar programas de reparación individual o colectiva</t>
+          <t>Distribución de alimentos del programa vaso de leche a población en condición de vulnerabilidad</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Convenio (código 023)</t>
+          <t>Persona atendida  (código 087)</t>
         </is>
       </c>
     </row>
@@ -4479,17 +4534,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>AO.06.03.02</t>
+          <t>AO.06.02.02</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Atención a víctimas o familiares en trámites vinculados a reparaciones individuales o colectivas</t>
+          <t>Ejecución de programas municipales de apoyo alimentario con participación comunitaria</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Registro  (código 103)</t>
+          <t>Persona atendida  (código 087)</t>
         </is>
       </c>
     </row>
@@ -4506,17 +4561,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>AO.06.04.01</t>
+          <t>AO.06.02.03</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Atención directa a personas vulnerables en defensorías comunitarias municipales</t>
+          <t>Orientación o atención psicosocial comunitaria a personas vulnerables</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Caso tratado (código 016)</t>
+          <t>Persona atendida  (código 087)</t>
         </is>
       </c>
     </row>
@@ -4533,17 +4588,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>AO.06.04.02</t>
+          <t>AO.06.03.01</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Ejecución de campañas de promoción de derechos para mujeres, niños, niñas y adolescentes (NNA) y población con discapacidad</t>
+          <t>Suscripción de convenios para implementar programas de reparación individual o colectiva</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Evento (código 117)</t>
+          <t>Convenio (código 023)</t>
         </is>
       </c>
     </row>
@@ -4560,17 +4615,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>AO.06.04.03</t>
+          <t>AO.06.03.02</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Intervención ante reportes de violencia familiar o discriminación</t>
+          <t>Atención a víctimas o familiares en trámites vinculados a reparaciones individuales o colectivas</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Caso tratado (código 016)</t>
+          <t>Registro  (código 103)</t>
         </is>
       </c>
     </row>
@@ -4587,17 +4642,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>AO.06.05.01</t>
+          <t>AO.06.04.01</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Registro de hogares en situación de pobreza o vulnerabilidad en SISFOH</t>
+          <t>Atención directa a personas vulnerables en defensorías comunitarias municipales</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Registro (código 103)</t>
+          <t>Caso tratado (código 016)</t>
         </is>
       </c>
     </row>
@@ -4614,24 +4669,24 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>AO.06.05.02</t>
+          <t>AO.06.04.02</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Revalidación o actualización de datos socioeconómicos de hogares registrados</t>
+          <t>Ejecución de campañas de promoción de derechos para mujeres, niños, niñas y adolescentes (NNA) y población con discapacidad</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Registro (código 103)</t>
+          <t>Evento (código 117)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Seguridad Ciudadana</t>
+          <t>Desarrollo e Inclusión Social</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4641,24 +4696,24 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>AO.07.01.01</t>
+          <t>AO.06.04.03</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Implementación del Comité local de Seguridad Ciudadana (CODISEC)</t>
+          <t>Intervención ante reportes de violencia familiar o discriminación</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sesión (código 133)</t>
+          <t>Caso tratado (código 016)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Seguridad Ciudadana</t>
+          <t>Desarrollo e Inclusión Social</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4668,24 +4723,24 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>AO.07.01.02</t>
+          <t>AO.06.05.01</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Fortalecimiento de comités  con equipamiento básico y capacitación</t>
+          <t>Registro de hogares en situación de pobreza o vulnerabilidad en SISFOH</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Comité de seguridad ciudadana (código 555)</t>
+          <t>Registro (código 103)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Seguridad Ciudadana</t>
+          <t>Desarrollo e Inclusión Social</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4695,17 +4750,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>AO.07.01.03</t>
+          <t>AO.06.05.02</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Elaboración/actualización del Plan de Seguridad Ciudadana con participación multisectorial</t>
+          <t>Revalidación o actualización de datos socioeconómicos de hogares registrados</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Documento (código 036)</t>
+          <t>Registro (código 103)</t>
         </is>
       </c>
     </row>
@@ -4722,17 +4777,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>AO.07.01.04</t>
+          <t>AO.07.01.01</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Seguimiento y evaluación del cumplimiento del Plan de Seguridad Ciudadana</t>
+          <t>Implementación del Comité local de Seguridad Ciudadana (CODISEC)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Documento (código 036)</t>
+          <t>Sesión (código 133)</t>
         </is>
       </c>
     </row>
@@ -4749,17 +4804,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>AO.07.02.01</t>
+          <t>AO.07.01.02</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Ejecución de patrullaje preventivo municipal e integrado en zonas priorizadas</t>
+          <t>Fortalecimiento de comités  con equipamiento básico y capacitación</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Patrullaje ejecutado (código 305)</t>
+          <t>Comité de seguridad ciudadana (código 555)</t>
         </is>
       </c>
     </row>
@@ -4776,12 +4831,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>AO.07.02.02</t>
+          <t>AO.07.01.03</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Planificación y monitoreo de rutas de patrullaje territorial integrado</t>
+          <t>Elaboración/actualización del Plan de Seguridad Ciudadana con participación multisectorial</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4803,17 +4858,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>AO.07.03.01</t>
+          <t>AO.07.01.04</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Implementación y puesta en funcionamiento del sistema de videovigilancia en puntos estratégicos</t>
+          <t>Seguimiento y evaluación del cumplimiento del Plan de Seguridad Ciudadana</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Instalación  (código 064)</t>
+          <t>Documento (código 036)</t>
         </is>
       </c>
     </row>
@@ -4830,24 +4885,24 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>AO.07.03.02</t>
+          <t>AO.07.02.01</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Mantenimiento preventivo y monitoreo del sistema de videovigilancia</t>
+          <t>Ejecución de patrullaje preventivo municipal e integrado en zonas priorizadas</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Servicio(código 107)</t>
+          <t>Patrullaje ejecutado (código 305)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Saneamiento</t>
+          <t>Seguridad Ciudadana</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4857,24 +4912,24 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>AO.08.01.01</t>
+          <t>AO.07.02.02</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Capacitación a juntas administradoras en operación y mantenimiento de sistemas</t>
+          <t>Planificación y monitoreo de rutas de patrullaje territorial integrado</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Persona capacitada  (código 088)</t>
+          <t>Documento (código 036)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Saneamiento</t>
+          <t>Seguridad Ciudadana</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4884,24 +4939,24 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>AO.08.01.02</t>
+          <t>AO.07.03.01</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Supervisión a sistemas de agua y saneamiento gestionados por JASS</t>
+          <t>Implementación y puesta en funcionamiento del sistema de videovigilancia en puntos estratégicos</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Supervisión (código 109)</t>
+          <t>Instalación  (código 064)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Saneamiento</t>
+          <t>Seguridad Ciudadana</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4911,17 +4966,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>AO.08.02.01</t>
+          <t>AO.07.03.02</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Mantenimiento preventivo de redes y sistemas de distribución de agua</t>
+          <t>Mantenimiento preventivo y monitoreo del sistema de videovigilancia</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Servicio (código 107)</t>
+          <t>Servicio(código 107)</t>
         </is>
       </c>
     </row>
@@ -4938,17 +4993,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>AO.08.02.02</t>
+          <t>AO.08.01.01</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Monitoreo de continuidad y calidad del servicio de agua</t>
+          <t>Capacitación a juntas administradoras en operación y mantenimiento de sistemas</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Análisis (código 004)</t>
+          <t>Persona capacitada  (código 088)</t>
         </is>
       </c>
     </row>
@@ -4965,17 +5020,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>AO.08.03.01</t>
+          <t>AO.08.01.02</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Mantenimiento de estaciones de bombeo y redes de alcantarillado sanitario</t>
+          <t>Supervisión a sistemas de agua y saneamiento gestionados por JASS</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Mantenimiento (código 455)</t>
+          <t>Supervisión (código 109)</t>
         </is>
       </c>
     </row>
@@ -4992,24 +5047,24 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>AO.08.03.02</t>
+          <t>AO.08.02.01</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Supervisión operativa de plantas de tratamiento de aguas residuales</t>
+          <t>Mantenimiento preventivo de redes y sistemas de distribución de agua</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Supervisión (código 109)</t>
+          <t>Servicio (código 107)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Economía</t>
+          <t>Saneamiento</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5019,24 +5074,24 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>AO.09.01.01</t>
+          <t>AO.08.02.02</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Ejecución de operativos de fiscalización a establecimientos comerciales</t>
+          <t>Monitoreo de continuidad y calidad del servicio de agua</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Fiscalización realizada (código 304)</t>
+          <t>Análisis (código 004)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Economía</t>
+          <t>Saneamiento</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5046,24 +5101,24 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>AO.09.01.02</t>
+          <t>AO.08.02.03</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Supervisión de condiciones de funcionamiento y seguridad en mercados y galerías</t>
+          <t>Cloración del agua en sistemas de abastecimiento de agua potable</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Supervisión (código 109)</t>
+          <t>Kilogramos (Sumatoria del número de kilogramos adquiridos y utilizados de los insumos químicos para el proceso de cloración del agua destinada al consumo humano en sistemas administrados por los gobiernos locales de manera directa o indirecta)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Economía</t>
+          <t>Saneamiento</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5073,24 +5128,24 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>AO.09.02.01</t>
+          <t>AO.08.02.04</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Organización de ferias, festivales y rutas turísticas locales</t>
+          <t xml:space="preserve">Comunicación y educación sanitaria para hogares </t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Evento  (código 117)</t>
+          <t>Hogares</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Economía</t>
+          <t>Saneamiento</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5100,24 +5155,24 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>AO.09.02.02</t>
+          <t>AO.08.03.01</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Promoción turística con enfoque cultural e inclusivo</t>
+          <t>Mantenimiento de los sistemas alcantarillado sanitario o disposición sanitaria de excretas</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Campaña  (código 014)</t>
+          <t>Mantenimiento (código 455)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Economía</t>
+          <t>Saneamiento</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5127,17 +5182,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>AO.09.03.01</t>
+          <t>AO.08.03.02</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Asesoramiento técnico a MYPES y emprendedores locales</t>
+          <t>Supervisión operativa de plantas de tratamiento de aguas residuales</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Persona Capacitada  (código 088)</t>
+          <t>Supervisión (código 109)</t>
         </is>
       </c>
     </row>
@@ -5154,17 +5209,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>AO.09.03.02</t>
+          <t>AO.09.01.01</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Asesoramiento personalizada en mejora de procesos productivos o formalización</t>
+          <t>Ejecución de operativos de fiscalización a establecimientos comerciales</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Productor asistido  (código 340)</t>
+          <t>Fiscalización realizada (código 304)</t>
         </is>
       </c>
     </row>
@@ -5181,17 +5236,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>AO.09.04.01</t>
+          <t>AO.09.01.02</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Difusión de beneficios y requisitos para formalización de MYPES</t>
+          <t>Supervisión de condiciones de funcionamiento y seguridad en mercados y galerías</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Campaña  (código 014)</t>
+          <t>Supervisión (código 109)</t>
         </is>
       </c>
     </row>
@@ -5208,17 +5263,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>AO.09.04.02</t>
+          <t>AO.09.02.01</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Asistencia técnica para la formalización de emprendimientos locales</t>
+          <t>Organización de ferias, festivales y rutas turísticas locales</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Productor asistido  (código 340)</t>
+          <t>Evento  (código 117)</t>
         </is>
       </c>
     </row>
@@ -5235,17 +5290,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>AO.09.05.01</t>
+          <t>AO.09.02.02</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Organización de ferias y ruedas de negocio de productos locales</t>
+          <t>Promoción turística con enfoque cultural e inclusivo</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Evento  (código 117)</t>
+          <t>Campaña  (código 014)</t>
         </is>
       </c>
     </row>
@@ -5262,24 +5317,24 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>AO.09.05.02</t>
+          <t>AO.09.03.01</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Coordinación de alianzas para comercialización sostenible con actores económicos</t>
+          <t>Asesoramiento técnico a MYPES y emprendedores locales</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Convenio (código 023)</t>
+          <t>Persona Capacitada  (código 088)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Economía</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5289,24 +5344,24 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>AO.10.01.01</t>
+          <t>AO.09.03.02</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Instalación de señalización vertical en intersecciones y zonas escolares</t>
+          <t>Asesoramiento personalizada en mejora de procesos productivos o formalización</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Instalación  (código 064)</t>
+          <t>Productor asistido  (código 340)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Economía</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5316,24 +5371,24 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>AO.10.01.02</t>
+          <t>AO.09.04.01</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Pintado de señalización horizontal (líneas peatonales, flechas, cruces)</t>
+          <t>Difusión de beneficios y requisitos para formalización de MYPES</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Metro lineal  (código 154)</t>
+          <t>Campaña  (código 014)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Economía</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5343,24 +5398,24 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>AO.10.01.03</t>
+          <t>AO.09.04.02</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Supervisión y mantenimiento preventivo de señalización vial</t>
+          <t>Asistencia técnica para la formalización de emprendimientos locales</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Supervisión realizada  (código 303)</t>
+          <t>Productor asistido  (código 340)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Economía</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5370,24 +5425,24 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>AO.10.02.01</t>
+          <t>AO.09.05.01</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Ejecución de talleres de sensibilización sobre normas de tránsito para escolares y padres de familia</t>
+          <t>Organización de ferias y ruedas de negocio de productos locales</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Taller  (Código 486)</t>
+          <t>Evento  (código 117)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Economía</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5397,24 +5452,24 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>AO.10.02.02</t>
+          <t>AO.09.05.02</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Desarrollo de campañas públicas de educación vial en espacios comunitarios y ferias</t>
+          <t>Coordinación de alianzas para comercialización sostenible con actores económicos</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Campaña  (código 014)</t>
+          <t>Convenio (código 023)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Economía</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5424,24 +5479,24 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>AO.10.02.03</t>
+          <t>AO.09.06.01</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Capacitación a conductores de transporte local en seguridad vial</t>
+          <t xml:space="preserve">Ejecución de obras para la construcción, mejoramiento o rehabilitación de infraestructura de riego </t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Usuario Capacitado (código 031)</t>
+          <t>155 Porcentaje</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Economía</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5451,24 +5506,24 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>AO.10.02.04</t>
+          <t>AO.09.06.02</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Elaboración y difusión de material educativo en educación vial</t>
+          <t>Implementación de equipamiento básico de riego</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Material educativo (código 485)</t>
+          <t>604 equipo implementado</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Economía</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5478,17 +5533,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>AO.10.03.01</t>
+          <t>AO.09.06.03</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Ejecución de labores de conservación rutinaria de caminos de herradura</t>
+          <t>Mantenimiento preventivo y correctivo de infraestructura o equipamiento  de riego</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Vías (código 424)</t>
+          <t>455 Mantenimiento</t>
         </is>
       </c>
     </row>
@@ -5505,17 +5560,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>AO.10.03.02</t>
+          <t>AO.10.01.01</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Mantenimiento periódico con maquinaria de caminos vecinales</t>
+          <t>Instalación de señalización vertical en intersecciones y zonas escolares</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Kilómetro  (código 067)</t>
+          <t>Instalación  (código 064)</t>
         </is>
       </c>
     </row>
@@ -5532,17 +5587,17 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>AO.10.03.03</t>
+          <t>AO.10.01.02</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Supervisión de mantenimiento vial en rutas priorizadas</t>
+          <t>Pintado de señalización horizontal (líneas peatonales, flechas, cruces)</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Supervisión realizada  (código 303)</t>
+          <t>Metro lineal  (código 154)</t>
         </is>
       </c>
     </row>
@@ -5559,17 +5614,17 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>AO.10.04.01</t>
+          <t>AO.10.01.03</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Operativos de fiscalización a vehículos de transporte público</t>
+          <t>Supervisión y mantenimiento preventivo de señalización vial</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Vehículo supervisado  (código 283)</t>
+          <t>Supervisión realizada  (código 303)</t>
         </is>
       </c>
     </row>
@@ -5586,17 +5641,17 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>AO.10.04.02</t>
+          <t>AO.10.02.01</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Control de rutas y horarios autorizados del servicio de transporte local</t>
+          <t>Ejecución de talleres de sensibilización sobre normas de tránsito para escolares y padres de familia</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Operativo ejecutado (código 522)</t>
+          <t>Taller  (Código 486)</t>
         </is>
       </c>
     </row>
@@ -5613,17 +5668,17 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>AO.10.04.03</t>
+          <t>AO.10.02.02</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Atención de denuncias y reclamos sobre mal servicio de transporte público</t>
+          <t>Desarrollo de campañas públicas de educación vial en espacios comunitarios y ferias</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Reclamos resueltos e informac (código 169)</t>
+          <t>Campaña  (código 014)</t>
         </is>
       </c>
     </row>
@@ -5640,24 +5695,24 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>AO.10.04.04</t>
+          <t>AO.10.02.03</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Capacitación a operadores sobre normativas de tránsito y transporte</t>
+          <t>Capacitación a conductores de transporte local en seguridad vial</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Operador capacitado (código 320)</t>
+          <t>Usuario Capacitado (código 031)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Institucional</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5667,24 +5722,24 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>AO.11.01.01</t>
+          <t>AO.10.02.04</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Elaboración del Plan de Desarrollo de Personas de la municipalidad</t>
+          <t>Elaboración y difusión de material educativo en educación vial</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Plan (código 091)</t>
+          <t>Material educativo (código 485)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Institucional</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5694,24 +5749,24 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>AO.11.01.02</t>
+          <t>AO.10.03.01</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Ejecución de cursos de capacitación en temas normativos, administrativos o técnicos.</t>
+          <t>Ejecución de labores de conservación rutinaria de caminos de herradura</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Trabajador Capacitado  (código 355)</t>
+          <t>Vías (código 424)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Institucional</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5721,24 +5776,24 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>AO.11.01.03</t>
+          <t>AO.10.03.02</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Evaluación de resultados de las capacitaciones implementadas.</t>
+          <t>Mantenimiento periódico con maquinaria de caminos vecinales</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Informe (Código 060)</t>
+          <t>Kilómetro  (código 067)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Institucional</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5748,24 +5803,24 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>AO.11.02.01</t>
+          <t>AO.10.03.03</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Ejecución de audiencias públicas de rendición de cuentas.</t>
+          <t>Supervisión de mantenimiento vial en rutas priorizadas</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Evento  (código 117)</t>
+          <t>Supervisión realizada  (código 303)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Institucional</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5775,24 +5830,24 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>AO.11.02.02</t>
+          <t>AO.10.04.01</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Publicación de información municipal en el portal de transparencia estándar.</t>
+          <t>Operativos de fiscalización a vehículos de transporte público</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Publicación (código 097)</t>
+          <t>Vehículo supervisado  (código 283)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Institucional</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5802,24 +5857,24 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>AO.11.02.03</t>
+          <t>AO.10.04.02</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Implementación de mecanismos de participación ciudadana en el presupuesto participativo.</t>
+          <t>Control de rutas y horarios autorizados del servicio de transporte local</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Taller (código 486)</t>
+          <t>Operativo ejecutado (código 522)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Institucional</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5829,24 +5884,24 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>AO.11.02.04</t>
+          <t>AO.10.04.03</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Evaluación de cumplimiento de compromisos de gobierno abierto.</t>
+          <t>Atención de denuncias y reclamos sobre mal servicio de transporte público</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Informe (código 060)</t>
+          <t>Reclamos resueltos e informac (código 169)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Institucional</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5856,17 +5911,17 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>AO.11.03.01</t>
+          <t>AO.10.04.04</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Actualización y mejora de procedimientos administrativos internos.</t>
+          <t>Capacitación a operadores sobre normativas de tránsito y transporte</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Documento  (código 036)</t>
+          <t>Operador capacitado (código 320)</t>
         </is>
       </c>
     </row>
@@ -5883,17 +5938,17 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>AO.11.03.02</t>
+          <t>AO.11.01.01</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Evaluación del tiempo de atención al ciudadano en servicios priorizados.</t>
+          <t>Elaboración del Plan de Desarrollo de Personas de la municipalidad</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Informe (código 060)</t>
+          <t>Plan (código 091)</t>
         </is>
       </c>
     </row>
@@ -5910,17 +5965,17 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>AO.11.04.01</t>
+          <t>AO.11.01.02</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Actualización del padrón de contribuyentes.</t>
+          <t>Ejecución de cursos de capacitación en temas normativos, administrativos o técnicos.</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Registro (código 103)</t>
+          <t>Trabajador Capacitado  (código 355)</t>
         </is>
       </c>
     </row>
@@ -5937,17 +5992,17 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>AO.11.04.02</t>
+          <t>AO.11.01.03</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Ejecución de operativos de fiscalización tributaria.</t>
+          <t>Evaluación de resultados de las capacitaciones implementadas.</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Operativos (código 444)</t>
+          <t>Informe (Código 060)</t>
         </is>
       </c>
     </row>
@@ -5964,17 +6019,17 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>AO.11.04.03</t>
+          <t>AO.11.01.04</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Ejecución de campañas de incentivos para el pago oportuno de tributos.</t>
+          <t>Ejecución de programas de inducción y reinducción al personal municipal.</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Campaña (código 014)</t>
+          <t>Persona capacitada (Cod. 088)</t>
         </is>
       </c>
     </row>
@@ -5991,17 +6046,17 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>AO.11.04.04</t>
+          <t>AO.11.02.01</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Evaluación de la efectividad de la cobranza municipal.</t>
+          <t>Ejecución de audiencias públicas de rendición de cuentas.</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Informe (código 060)</t>
+          <t>Evento  (código 117)</t>
         </is>
       </c>
     </row>
@@ -6018,17 +6073,17 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>AO.11.05.01</t>
+          <t>AO.11.02.02</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Elaboración y aprobación del TUPA institucional.</t>
+          <t>Publicación de información municipal en el portal de transparencia estándar.</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Instrumentos (código 416)</t>
+          <t>Publicación (código 097)</t>
         </is>
       </c>
     </row>
@@ -6045,17 +6100,17 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>AO.11.05.02</t>
+          <t>AO.11.02.03</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Actualización del ROF, MOF y CAP de la municipalidad.</t>
+          <t>Implementación de mecanismos de participación ciudadana en el presupuesto participativo.</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Instrumentos (código 416)</t>
+          <t>Taller (código 486)</t>
         </is>
       </c>
     </row>
@@ -6072,12 +6127,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>AO.11.05.03</t>
+          <t>AO.11.02.04</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Formulación y seguimiento del Plan Estratégico Institucional (PEI) y Plan Operativo Institucional (POI).</t>
+          <t>Evaluación de cumplimiento de compromisos de gobierno abierto.</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6099,17 +6154,17 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>AO.11.05.04</t>
+          <t>AO.11.03.01</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Difusión y capacitación interna sobre los instrumentos de gestión aprobados.</t>
+          <t>Actualización y mejora de procedimientos administrativos internos.</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Trabajador Capacitado  (código 355)</t>
+          <t>Documento  (código 036)</t>
         </is>
       </c>
     </row>
@@ -6126,17 +6181,17 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>AO.11.06.01</t>
+          <t>AO.11.03.02</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Implementación de sistema de trámite documentario digital.</t>
+          <t>Evaluación del tiempo de atención al ciudadano en servicios priorizados.</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sistema  (código 108)</t>
+          <t>Informe (código 060)</t>
         </is>
       </c>
     </row>
@@ -6153,17 +6208,17 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>AO.11.06.02</t>
+          <t>AO.11.03.03</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Digitalización del archivo físico institucional.</t>
+          <t>Ejecución de procesos de selección y contratación de personal municipal.</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Sistema  (código 108)</t>
+          <t>Proceso (Cod.533)</t>
         </is>
       </c>
     </row>
@@ -6180,17 +6235,17 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>AO.11.06.03</t>
+          <t>AO.11.03.04</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Desarrollo de plataforma para trámites ciudadanos en línea.</t>
+          <t>Gestión del rendimiento de los servidores municipales.</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sistema  (código 108)</t>
+          <t>Evaluación (Cod.047)</t>
         </is>
       </c>
     </row>
@@ -6207,15 +6262,443 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>AO.11.04.01</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Actualización del padrón de contribuyentes.</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Registro (código 103)</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>AO.11.04.02</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Ejecución de operativos de fiscalización tributaria.</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Operativos (código 444)</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>AO.11.04.03</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Ejecución de campañas de incentivos para el pago oportuno de tributos.</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Campaña (código 014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>AO.11.04.04</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Evaluación de la efectividad de la cobranza municipal.</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Informe (código 060)</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>AO.11.04.05</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Emisión mecanizada de valores tributarios.</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Recibos (código 264)</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>AO.11.04.06</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Priorización y saneamiento de expedientes coactivos no tributarios.</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Expediente (código 051)</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>AO.11.04.07</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Ejecución de medidas coactivas en expedientes no tributarios.</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Expediente Tramitado (código 055)</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>AO.11.04.08</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Evaluación de efectividad de la cobranza coactiva no tributaria.</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Informe Técnico (código 201)</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>AO.11.05.01</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Elaboración y aprobación del TUPA institucional.</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Instrumentos (código 416)</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>AO.11.05.02</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Actualización del ROF, MOF y CAP de la municipalidad.</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Instrumentos (código 416)</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>AO.11.05.03</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Formulación y seguimiento del Plan Estratégico Institucional (PEI) y Plan Operativo Institucional (POI).</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Informe (código 060)</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>AO.11.05.04</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Difusión y capacitación interna sobre los instrumentos de gestión aprobados.</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Trabajador Capacitado  (código 355)</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>AO.11.05.05</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Implementación del Plan de Integridad Institucional</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Documento (código 036)</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>AO.11.06.01</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Implementación de sistema de trámite documentario digital.</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Sistema  (código 108)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>AO.11.06.02</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Digitalización del archivo físico institucional.</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Sistema  (código 108)</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>AO.11.06.03</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Desarrollo de plataforma para trámites ciudadanos en línea.</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Sistema  (código 108)</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
           <t>AO.11.06.04</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>Capacitación al personal en competencias digitales básicas.</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>Trabajador Capacitado  (código 355)</t>
         </is>

--- a/Extraer_por_elemento_MEGL.xlsx
+++ b/Extraer_por_elemento_MEGL.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,15 +512,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Porcentaje de personas satisfechas con las campañas y actividades de promoción de salud
-realizadas por la municipalidad</t>
+          <t>Porcentaje de personas satisfechas con las campañas y actividades de promoción de salud</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Educación</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -530,24 +529,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OEI.03</t>
+          <t>OEI.02</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Promover el acceso a servicios educativos, deportivos y recreacionales con enfoque intercultural e inclusivo para la población local</t>
+          <t>Fortalecer el acceso a la atención primaria de salud preventiva de la población local</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Porcentaje de participantes satisfechos con los programas educativos organizados por la municipalidad</t>
+          <t>realizadas por la municipalidad</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ambiente</t>
+          <t>Educación</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -557,24 +556,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>OEI.04</t>
+          <t>OEI.03</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Promover condiciones ambientales saludables y sostenibles para  la población local</t>
+          <t>Promover el acceso a servicios educativos, deportivos y recreacionales con enfoque intercultural e inclusivo para la población local</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Porcentaje de ciudadanos satisfechos con el servicio de recojo de residuos sólidos</t>
+          <t>Porcentaje de participantes satisfechos con los programas educativos organizados por la municipalidad</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GRD</t>
+          <t>Ambiente</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -584,24 +583,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OEI.05</t>
+          <t>OEI.04</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Reducir la exposición al riesgo de desastres de origen natural o antrópico de la población local</t>
+          <t>Promover condiciones ambientales saludables y sostenibles para la población local</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Porcentaje de zonas de la localidad con factores de riesgo de desastres eliminados o minimizados</t>
+          <t>Porcentaje de ciudadanos satisfechos con el servicio de recojo de residuos sólidos</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Desarrollo e Inclusión Social</t>
+          <t>Ambiente</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -611,24 +610,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>OEI.06</t>
+          <t>OEI.04</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mejorar el acceso a servicios de protección social y defensa de derechos de la población en situación de vulnerabilidad de la localidad</t>
+          <t>Promover condiciones ambientales saludables y sostenibles para la población local</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Porcentaje de la población en condición vulnerable atendida por programas sociales municipales</t>
+          <t>Porcentaje de zonas de la localidad donde se han reducido puntos críticos de contaminación</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Seguridad Ciudadana</t>
+          <t>GRD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -638,24 +637,24 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>OEI.07</t>
+          <t>OEI.05</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Fortalecer la prevención y disuasión del delito y violencia en beneficio de la población local</t>
+          <t>Reducir la exposición al riesgo de desastres de origen natural o antrópico de la población local</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Porcentaje de zonas con alta incidencia delictiva con servicio de patrullaje integrado</t>
+          <t>Porcentaje de zonas de la localidad con factores de riesgo de desastres eliminados o minimizados</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saneamiento</t>
+          <t>Desarrollo e Inclusión Social</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -665,24 +664,24 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>OEI.08</t>
+          <t>OEI.06</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Garantizar la provisión de los servicios de agua potable y saneamiento en beneficio de la población local</t>
+          <t>Mejorar el acceso a servicios de protección social y defensa de derechos de la población en situación de vulnerabilidad de la localidad</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Porcentaje de viviendas con servicio de agua potable y alcantarillado </t>
+          <t>Porcentaje de la población en condición vulnerable atendida por programas sociales municipales</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Economía</t>
+          <t>Seguridad Ciudadana</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -692,24 +691,24 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>OEI.09</t>
+          <t>OEI.07</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Impulsar el crecimiento de la actividad empresarial,  de emprendimientos y MYPES en la localidad</t>
+          <t>Fortalecer la prevención y disuasión del delito y violencia en beneficio de la población local</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Porcentaje de micro y pequeñas empresas que operan con licencias municipales adecuadas</t>
+          <t>Porcentaje de zonas con alta incidencia delictiva con servicio de patrullaje integrado</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Saneamiento</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -719,42 +718,96 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>OEI.10</t>
+          <t>OEI.08</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mejorar el servicio de transporte y  transitabilidad en beneficio de la población local</t>
+          <t>Garantizar la provisión de los servicios de agua potable y saneamiento en beneficio de la población local</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Porcentaje de puntos críticos de tránsito en vías locales atendidos y mitigados</t>
+          <t xml:space="preserve">Porcentaje de viviendas con servicio de agua potable y alcantarillado </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Economía</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>OEI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>OEI.09</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Impulsar el crecimiento de la actividad empresarial, de emprendimientos y MYPES en la localidad</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Porcentaje de micro y pequeñas empresas que operan con licencias municipales adecuadas</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Transporte</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>OEI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>OEI.10</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Mejorar el servicio de transporte y transitabilidad en beneficio de la población local</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Porcentaje de puntos críticos de tránsito en vías locales atendidos y mitigados</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Institucional</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>OEI</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>OEI.11</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Modernizar la Gestión Institucional</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve">Porcentaje de ciudadanos satisfechos con la gestión institucional de la municipalidad </t>
         </is>
@@ -771,7 +824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,7 +909,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Porcentaje de predios de la localidad con saneamiento físico - legal</t>
+          <t>Porcentaje de predios de la localidad con saneamiento físico-legal</t>
         </is>
       </c>
     </row>
@@ -932,7 +985,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fiscalización de  habilitaciones urbanas y  edificaciones de manera integral, dirigidos a personas naturales y jurídicas que ejecutan obras en la localidad</t>
+          <t>Fiscalización de habilitaciones urbanas y  edificaciones de manera integral, dirigidos a personas naturales y jurídicas que ejecutan obras en la localidad</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -959,7 +1012,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Construcción; equipamiento y mantenimiento de los establecimiento de salud adecuados en beneficio de la salud de la población local</t>
+          <t>Construcción; equipamiento y mantenimiento de los establecimientos de salud adecuados en beneficio de la salud de la población local</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -981,17 +1034,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AEI.02.02</t>
+          <t>AEI.02.01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Campañas de medicina preventiva, primeros auxilios, educación sanitaria y profilaxis ejecutados en beneficio de la población local</t>
+          <t>Construcción; equipamiento y mantenimiento de los establecimientos de salud adecuados en beneficio de la salud de la población local</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Porcentaje de campañas médicas municipales ejecutadas en la localidad</t>
+          <t>Porcentaje de inversiones en infraestructura culminadas para la mejora/construcción de establecimientos de salud bajo administración municipal</t>
         </is>
       </c>
     </row>
@@ -1008,24 +1061,24 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AEI.02.03</t>
+          <t>AEI.02.02</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Campañas de control de epidemias y sanidad animal ejecutadas dirigidas a productores pecuarios y comunidades rurales de la localidad</t>
+          <t>Campañas de medicina preventiva, primeros auxilios, educación sanitaria y profilaxis ejecutadas en beneficio de la población local</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Porcentaje de campañas municipales de control de epidemias y sanidad animal ejecutadas </t>
+          <t>Porcentaje de campañas médicas municipales ejecutadas en la localidad</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Educación</t>
+          <t>Salud</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1035,17 +1088,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AEI.03.01</t>
+          <t>AEI.02.03</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Talleres de la lectura, escritura, ciencias  y arte implementados en espacios educativos y culturales en beneficio de la población local</t>
+          <t>Campañas de control de epidemias y sanidad animal ejecutadas dirigidas a productores pecuarios y comunidades rurales de la localidad</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Número de actividades culturales bajo responsabilidad municipal ejecutadas</t>
+          <t xml:space="preserve">Porcentaje de campañas municipales de control de epidemias y sanidad animal ejecutadas </t>
         </is>
       </c>
     </row>
@@ -1062,17 +1115,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AEI.03.02</t>
+          <t>AEI.03.01</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Programa deportivo y recreacional municipal accesible para la niñez, juventud y vecindario en general de la localidad</t>
+          <t>Talleres de lectura, escritura, ciencias  y arte implementados en espacios educativos y culturales en beneficio de la población local</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Porcentaje de sesiones del programa deportivo municipal realizadas</t>
+          <t>Número de actividades culturales bajo responsabilidad municipal ejecutadas</t>
         </is>
       </c>
     </row>
@@ -1089,24 +1142,24 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AEI.03.03</t>
+          <t>AEI.03.02</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Construcción, equipamiento y mantenimiento de los locales educativos, adecuados en beneficio la población estudiantil de la localidad</t>
+          <t>Programa deportivo y recreacional municipal accesible para la niñez, juventud y vecindario en general de la localidad</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Porcentaje de inversiones en infraestructura culminadas para la mejora/construcción de establecimientos educativos</t>
+          <t>Porcentaje de sesiones del programa deportivo municipal realizadas</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ambiente</t>
+          <t>Educación</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1116,17 +1169,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AEI.04.01</t>
+          <t>AEI.03.03</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acciones de conservación  de recursos forestales y de fauna silvestre ejecutadas, dirigidas a comunidades, productores u organizaciones locales </t>
+          <t>Construcción, equipamiento y mantenimiento de los locales educativos, adecuados en beneficio de la población estudiantil de la localidad</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Número de acciones de conservación ambiental ejecutadas por la municipalidad</t>
+          <t>Porcentaje de inversiones en infraestructura culminadas para la mejora/construcción de establecimientos educativos</t>
         </is>
       </c>
     </row>
@@ -1143,17 +1196,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AEI.04.02</t>
+          <t>AEI.04.01</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Gestión de los residuos solidos de manera integral en beneficio de la población local</t>
+          <t xml:space="preserve">Acciones de conservación de recursos forestales y de fauna silvestre ejecutadas, dirigidas a comunidades, productores u organizaciones locales </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Promedio de días por semana del servicio de recojo de residuos sólidos</t>
+          <t>Número de acciones de conservación ambiental ejecutadas por la municipalidad</t>
         </is>
       </c>
     </row>
@@ -1170,17 +1223,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AEI.04.03</t>
+          <t>AEI.04.02</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Programa Municipal de Educación, Cultura y Ciudadanía Ambiental  EDUCCA implementado en beneficio de la población local</t>
+          <t>Gestión de los residuos sólidos de manera integral en beneficio de la población local</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Número de actividades realizadas para la promoción de la conciencia ambiental del programa EDUCCA</t>
+          <t>Promedio de días por semana del servicio de recojo de residuos sólidos</t>
         </is>
       </c>
     </row>
@@ -1197,17 +1250,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AEI.04.04</t>
+          <t>AEI.04.02</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fiscalización de emisión de humos, gases, ruido y otros contaminantes de la atmósfera y el ambiente, de manera oportuna a personas naturales y jurídicas que desarrollan actividades generadoras de emisiones contaminantes en la localidad</t>
+          <t>Gestión de los residuos sólidos de manera integral en beneficio de la población local</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Número de fiscalizaciones ambientales en la localidad</t>
+          <t>Porcentaje de toneladas de residuos sólidos no reutilizables dispuestos adecuadamente en infraestructuras de residuos sólidos.</t>
         </is>
       </c>
     </row>
@@ -1224,17 +1277,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AEI.04.05</t>
+          <t>AEI.04.03</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Áreas verdes de uso público en condiciones adecuadas para el disfrute de la población local</t>
+          <t>Programa Municipal de Educación, Cultura y Ciudadanía Ambiental EDUCCA implementado en beneficio de la población local</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Porcentaje de áreas verdes en espacios públicos municipales en condiciones adecuadas</t>
+          <t>Número de actividades realizadas para la promoción de la conciencia ambiental del programa EDUCCA</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1304,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AEI.04.06</t>
+          <t>AEI.04.04</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zonificación Ecológica Económica (ZEE) implementada en beneficio de los tomadores de decisiones y la ciudadanía </t>
+          <t>Fiscalización de emisión de humos, gases, ruido y otros contaminantes de la atmósfera y el ambiente, de manera oportuna a personas naturales y jurídicas que desarrollan actividades generadoras de emisiones contaminantes en la localidad</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Porcentaje de zonas productivas con uso adecuado de acuerdo a la Zonificación Ecológica Económica</t>
+          <t>Número de fiscalizaciones ambientales en la localidad</t>
         </is>
       </c>
     </row>
@@ -1278,24 +1331,24 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AEI.04.07</t>
+          <t>AEI.04.05</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Acciones municipales para la protección y conservación sostenible de fuentes de agua en beneficio de la población local</t>
+          <t>Áreas verdes de uso público en condiciones adecuadas para el disfrute de la población local</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Número de acciones municipales para la protección de fuentes de agua en la localidad</t>
+          <t>Porcentaje de áreas verdes en espacios públicos municipales en condiciones adecuadas</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GRD</t>
+          <t>Ambiente</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1305,24 +1358,24 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AEI.05.01</t>
+          <t>AEI.04.06</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Instrumentos de estimación del riesgo de desastres implementados para la protección de la población y el territorio local</t>
+          <t xml:space="preserve">Zonificación Ecológica Económica (ZEE) implementada en beneficio de los tomadores de decisiones y la ciudadanía </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Número de instrumentos para la estimación del riesgo de desastres implementados en la localidad</t>
+          <t>Porcentaje de zonas productivas con uso adecuado de acuerdo a la Zonificación Ecológica Económica</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GRD</t>
+          <t>Ambiente</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1332,17 +1385,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AEI.05.02</t>
+          <t>AEI.04.07</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Asistencia técnica en gestión de riesgos de desastres permanentes para la población local</t>
+          <t>Acciones municipales para la protección y conservación sostenible de fuentes de agua en beneficio de la población local</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Número de asistencias técnicas en GRD realizadas en zonas vulnerables en la localidad</t>
+          <t>Número de acciones municipales para la protección de fuentes de agua en la localidad</t>
         </is>
       </c>
     </row>
@@ -1359,17 +1412,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AEI.05.03</t>
+          <t>AEI.05.01</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sistema de alerta temprana implementado en beneficio de la población local</t>
+          <t>Instrumentos de estimación del riesgo de desastres implementados para la protección de la población y el territorio local</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Número de mecanismos de vigilancia operativos para la comunicación de alertas tempranas en la localidad</t>
+          <t>Número de instrumentos para la estimación del riesgo de desastres implementados en la localidad</t>
         </is>
       </c>
     </row>
@@ -1386,17 +1439,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AEI.05.04</t>
+          <t>AEI.05.02</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Información de emergencias, peligros  y desastres oportuna para los tomadores de decisiones del sistema. </t>
+          <t>Asistencia técnica en gestión de riesgos de desastres permanentes para la población local</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Número de herramientas de comunicación efectivamente entregadas a los tomadores de decisiones y ciudadanía sobre peligros, emergencias y desastres </t>
+          <t>Número de asistencias técnicas en GRD realizadas en zonas vulnerables en la localidad</t>
         </is>
       </c>
     </row>
@@ -1413,17 +1466,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AEI.05.05</t>
+          <t>AEI.05.03</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Atención frente a emergencias y desastres oportuna a la población damnificada y afectada  en la localidad</t>
+          <t>Sistema de alerta temprana implementado en beneficio de la población local</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Número de atenciones integrales a damnificados de emergencias y desastres</t>
+          <t>Número de mecanismos de vigilancia operativos para la comunicación de alertas tempranas en la localidad</t>
         </is>
       </c>
     </row>
@@ -1440,17 +1493,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AEI.05.06</t>
+          <t>AEI.05.04</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rehabilitación de servicios públicos básicos, infraestructura y medios de vida oportuna en beneficio de la población local</t>
+          <t xml:space="preserve">Información de emergencias, peligros y desastres oportuna para los tomadores de decisiones del sistema. </t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Porcentaje de servicios públicos municipales interrumpidos por emergencias y desastres restaurados de manera oportuna </t>
+          <t xml:space="preserve">Número de herramientas de comunicación efectivamente entregadas a los tomadores de decisiones y ciudadanía sobre peligros, emergencias y desastres </t>
         </is>
       </c>
     </row>
@@ -1467,17 +1520,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AEI.05.07</t>
+          <t>AEI.05.05</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Reconstrucción física, económica y social con enfoque de derechos humanos en beneficio de la población local</t>
+          <t>Atención frente a emergencias y desastres oportuna a la población damnificada y afectada en la localidad</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Porcentaje de inversiones municipales en infraestructura culminadas para la recontrucción en la localidad</t>
+          <t>Número de atenciones integrales a damnificados de emergencias y desastres</t>
         </is>
       </c>
     </row>
@@ -1494,24 +1547,24 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AEI.05.08</t>
+          <t>AEI.05.06</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Infraestructura para la prevención y mitigación de riesgos de desastres adecuada en la localidad.</t>
+          <t>Rehabilitación de servicios públicos básicos, infraestructura y medios de vida oportuna en beneficio de la población local</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Porcentaje de PIPs de GRD del banco de proyectos de la municipalidad</t>
+          <t xml:space="preserve">Porcentaje de servicios públicos municipales interrumpidos por emergencias y desastres restaurados de manera oportuna </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Desarrollo e Inclusión Social</t>
+          <t>GRD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1521,24 +1574,24 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AEI.06.01</t>
+          <t>AEI.05.07</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Servicios de registro civil oportunos para la población local</t>
+          <t>Reconstrucción física, económica y social con enfoque de derechos humanos en beneficio de la población local</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Porcentaje de atenciones de registro civil oportunas en la localidad</t>
+          <t>Porcentaje de inversiones municipales en infraestructura culminadas para la reconstrucción en la localidad</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Desarrollo e Inclusión Social</t>
+          <t>GRD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1548,17 +1601,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AEI.06.02</t>
+          <t>AEI.05.08</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Programas de apoyo social ejecutados en beneficio de la población en situación de vulnerabilidad en la localidad</t>
+          <t>Infraestructura para la prevención y mitigación de riesgos de desastres adecuada en la localidad.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Número de atenciones en los programas municipales de apoyo social en la localidad</t>
+          <t>Porcentaje de PIPs de GRD del banco de proyectos de la municipalidad</t>
         </is>
       </c>
     </row>
@@ -1575,17 +1628,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AEI.06.03</t>
+          <t>AEI.06.01</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Registro para la atención de programas de reparaciones, de forma oportuna para las víctimas y familiares de violencia en la localidad</t>
+          <t>Servicios de registro civil oportunos para la población local</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Número de registros efectivos para la atención de programas de reparaciones para las víctimas y familiares de violencia en la localidad</t>
+          <t>Porcentaje de atenciones de registro civil oportunas en la localidad</t>
         </is>
       </c>
     </row>
@@ -1602,17 +1655,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AEI.06.04</t>
+          <t>AEI.06.02</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Servicio de defensa y promoción de derechos de manera permanente en beneficio de la población en situación de vulnerabilidad de la localidad</t>
+          <t>Programas de apoyo social ejecutados en beneficio de la población en situación de vulnerabilidad en la localidad</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Número de casos atendidos por el servicio social municipal para la defensa y promoción de derechos</t>
+          <t>Número de atenciones en los programas municipales de apoyo social en la localidad</t>
         </is>
       </c>
     </row>
@@ -1629,24 +1682,24 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AEI.06.05</t>
+          <t>AEI.06.03</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Empadronamiento socioeconómico oportuno de hogares en situación de pobreza o vulnerabilidad en la localidad</t>
+          <t>Registro para la atención de programas de reparaciones, de forma oportuna para las víctimas y familiares de violencia en la localidad</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Número de registros actualizados en el Sistema de Focalización de Hogares (SISFOH)</t>
+          <t>Número de registros efectivos para la atención de programas de reparaciones para las víctimas y familiares de violencia en la localidad</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Seguridad Ciudadana</t>
+          <t>Desarrollo e Inclusión Social</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1656,24 +1709,24 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AEI.07.01</t>
+          <t>AEI.06.04</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Seguridad ciudadana comunitaria operativa para la protección de la población local</t>
+          <t>Servicio de defensa y promoción de derechos de manera permanente en beneficio de la población en situación de vulnerabilidad de la localidad</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Porcentaje de rondas ciudadanas de seguridad con equipamiento adecuado</t>
+          <t>Número de casos atendidos por el servicio social municipal para la defensa y promoción de derechos</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Seguridad Ciudadana</t>
+          <t>Desarrollo e Inclusión Social</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1683,17 +1736,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AEI.07.02</t>
+          <t>AEI.06.05</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Patrullaje municipal efectivo en beneficio de la población local</t>
+          <t>Empadronamiento socioeconómico oportuno de hogares en situación de pobreza o vulnerabilidad en la localidad</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Promedio semanal de jornadas de patrullaje integrado por zona en la localidad</t>
+          <t>Número de registros actualizados en el Sistema de Focalización de Hogares (SISFOH)</t>
         </is>
       </c>
     </row>
@@ -1710,24 +1763,24 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AEI.07.03</t>
+          <t>AEI.07.01</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sistema de video vigilancia operativo para la protección y seguridad de la población local</t>
+          <t>Seguridad ciudadana comunitaria operativa para la protección de la población local</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Porcentaje de cámaras de video vigilancia operativas en la localidad</t>
+          <t>Porcentaje de rondas ciudadanas de seguridad con equipamiento adecuado</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Saneamiento</t>
+          <t>Seguridad Ciudadana</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1737,24 +1790,24 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AEI.08.01</t>
+          <t>AEI.07.02</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Asistencia técnica en sostenibilidad de los servicios de agua potable y saneamiento de manera continua a la(s) Junta(s) Administradoras de Servicios de Saneamiento de la localidad</t>
+          <t>Patrullaje municipal efectivo en beneficio de la población local</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Número de asistencias técnicas a las Juntas Administradoras de Servicios de Saneamiento (JASS)</t>
+          <t>Promedio semanal de jornadas de patrullaje integrado por zona en la localidad</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Saneamiento</t>
+          <t>Seguridad Ciudadana</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1764,17 +1817,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AEI.08.02</t>
+          <t>AEI.07.03</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Servicio de agua potable de calidad para la población local</t>
+          <t>Sistema de videovigilancia operativo para la protección y seguridad de la población local</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Promedio diario de horas de servicio de agua potable en la localidad</t>
+          <t>Porcentaje de cámaras de videovigilancia operativas en la localidad</t>
         </is>
       </c>
     </row>
@@ -1791,24 +1844,24 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AEI.08.03</t>
+          <t>AEI.08.01</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Servicio de alcantarillado sanitario y tratamiento de aguas residuales  eficiente para la población local</t>
+          <t>Asistencia técnica en sostenibilidad de los servicios de agua potable y saneamiento de manera continua a la(s) Junta(s) Administradoras de Servicios de Saneamiento de la localidad</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Porcentaje de estaciones de bombeo en condiciones operativas adecuadas</t>
+          <t>Número de asistencias técnicas a las Juntas Administradoras de Servicios de Saneamiento (JASS)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Economía</t>
+          <t>Saneamiento</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1818,24 +1871,24 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AEI.09.01</t>
+          <t>AEI.08.02</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fiscalización y control del cumplimiento normativo permanente a los agentes económicos de la localidad </t>
+          <t>Servicio de agua potable de calidad para la población local</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Número de fiscalizaciones de licencias de funcionamiento realizadas de manera efectiva a micro y pequeñas empresas </t>
+          <t>Promedio diario de horas de servicio de agua potable en la localidad</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Economía</t>
+          <t>Saneamiento</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1845,24 +1898,24 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AEI.09.02</t>
+          <t>AEI.08.03</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Eventos turísticos vinculados al patrimonio cultural y natural con enfoque sostenible, dirigidos a emprendedores, asociaciones y otros actores del turismo y la cultura de la localidad</t>
+          <t>Servicio de alcantarillado sanitario y tratamiento de aguas residuales eficiente para la población local</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Número de eventos de promoción turística realizados por la municipalidad </t>
+          <t>Porcentaje de estaciones de bombeo en condiciones operativas adecuadas</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Economía</t>
+          <t>Saneamiento</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1872,24 +1925,24 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>AEI.09.03</t>
+          <t>AEI.08.03</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Asistencia técnica en actividades económicas locales especializada dirigida a los agentes económicos de la localidad</t>
+          <t>Servicio de alcantarillado sanitario y tratamiento de aguas residuales eficiente para la población local</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Número de asistencias técnicas para el fortalecimiento empresarial a micro y pequeños empresarios de la localidad</t>
+          <t>Número de conexiones nuevas de alcantarillado instaladas en la localidad</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Economía</t>
+          <t>Saneamiento</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1899,17 +1952,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AEI.09.04</t>
+          <t>AEI.08.03</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Campañas de promoción de la formalización de micro y pequeñas empresas accesibles para la población local</t>
+          <t>Servicio de alcantarillado sanitario y tratamiento de aguas residuales eficiente para la población local</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Número de campañas implementadas para la formalización de micro y pequeñas empresas</t>
+          <t>Número de mantenimientos realizados a las conexiones domiciliarias de alcantarillado</t>
         </is>
       </c>
     </row>
@@ -1926,17 +1979,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AEI.09.05</t>
+          <t>AEI.09.01</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Eventos de articulación comercial y consumo de productos locales organizados con enfoque sostenible para agentes comerciales en la localidad</t>
+          <t xml:space="preserve">Fiscalización y control del cumplimiento normativo permanente a los agentes económicos de la localidad </t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Número de eventos para la promoción de la comercialización y consumo de productos locales organizados por la municipalidad</t>
+          <t xml:space="preserve">Número de fiscalizaciones de licencias de funcionamiento realizadas de manera efectiva a micro y pequeñas empresas </t>
         </is>
       </c>
     </row>
@@ -1953,24 +2006,24 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AEI.09.06</t>
+          <t>AEI.09.02</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Construcción, equipamiento y mantenimiento de infraestructura productiva adecuada y disponible para los productores agropecuarios y pequeños empresarios locales</t>
+          <t>Eventos turísticos vinculados al patrimonio cultural y natural con enfoque sostenible, dirigidos a emprendedores, asociaciones y otros actores del turismo y la cultura de la localidad</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Número de infraestructuras productivas construidas para productores agropecuarios y pequeños empresarios.</t>
+          <t xml:space="preserve">Número de eventos de promoción turística realizados por la municipalidad </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Economía</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1980,24 +2033,24 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AEI.10.01</t>
+          <t>AEI.09.03</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sistema de señalización de tránsito con mantenimiento adecuado en beneficio de la población de la localidad</t>
+          <t>Asistencia técnica en actividades económicas locales especializada dirigida a los agentes económicos de la localidad</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Porcentaje de vías locales con señalización adecuada</t>
+          <t>Número de asistencias técnicas para el fortalecimiento empresarial a micro y pequeños empresarios de la localidad</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Economía</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2007,24 +2060,24 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>AEI.10.02</t>
+          <t>AEI.09.04</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Capacitación en materia de educación vial oportuna dirigida a la población local</t>
+          <t>Campañas de promoción de la formalización de micro y pequeñas empresas accesibles para la población local</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Número de eventos educativos realizados para la promoción de la educación vial</t>
+          <t>Número de campañas implementadas para la formalización de micro y pequeñas empresas</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Economía</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2034,24 +2087,24 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AEI.10.03</t>
+          <t>AEI.09.05</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mantenimiento de caminos vecinales y de herradura permanente en beneficio de la población local</t>
+          <t>Eventos de articulación comercial y consumo de productos locales organizados con enfoque sostenible para agentes comerciales en la localidad</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Porcentaje de caminos vecinales en condiciones de transitabilidad</t>
+          <t>Número de eventos para la promoción de la comercialización y consumo de productos locales organizados por la municipalidad</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Economía</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2061,24 +2114,24 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AEI.10.04</t>
+          <t>AEI.09.06</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Supervisión y control del transporte público con eficiencia y cumplimiento normativo a los operadores de transporte local</t>
+          <t>Construcción, equipamiento y mantenimiento de infraestructura productiva adecuada y disponible para los productores agropecuarios y pequeños empresarios locales</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Número de fiscalizaciones a empresas prestadoras del servicio de transporte público en la localidad</t>
+          <t>Número de infraestructuras productivas construidas para productores agropecuarios y pequeños empresarios</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Institucional</t>
+          <t>Economía</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2088,24 +2141,24 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>AEI.11.01</t>
+          <t>AEI.09.06</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Capacitación para el desarrollo de competencias o conocimientos ejecutadas en beneficio del personal de la municipalidad. </t>
+          <t>Construcción, equipamiento y mantenimiento de infraestructura productiva adecuada y disponible para los productores agropecuarios y pequeños empresarios locales</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Porcentaje de acciones de capacitación ejecutadas en el marco del PDP</t>
+          <t>Número de equipos para las infraestructuras productivas efectivamente entregadas</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Institucional</t>
+          <t>Economía</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2115,24 +2168,24 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AEI.11.02</t>
+          <t>AEI.09.06</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gobierno abierto implementado en la municipalidad </t>
+          <t>Construcción, equipamiento y mantenimiento de infraestructura productiva adecuada y disponible para los productores agropecuarios y pequeños empresarios locales</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Porcentaje de actas y acuerdos municipales difundidos en redes sociales y portales web municipales</t>
+          <t>Número de servicios de mantenimiento realizados a la infraestructura productiva efectivamente realizados</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Institucional</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2142,24 +2195,24 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>AEI.11.03</t>
+          <t>AEI.10.01</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Servicios administrativos implementados eficientemente en la municipalidad</t>
+          <t>Sistema de señalización de tránsito con mantenimiento adecuado en beneficio de la población de la localidad</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Porcentaje de expedientes recibidos por mesa de partes atendidos de manera oportuna</t>
+          <t>Porcentaje de vías locales con señalización adecuada</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Institucional</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2169,24 +2222,24 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>AEI.11.04</t>
+          <t>AEI.10.02</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Recaudación tributaria efectiva en la municipalidad</t>
+          <t>Capacitación en materia de educación vial oportuna dirigida a la población local</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Número de campañas municipales para fortalecer la recaudación tributaria en la localidad</t>
+          <t>Número de eventos educativos realizados para la promoción de la educación vial</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Institucional</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2196,42 +2249,204 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>AEI.11.05</t>
+          <t>AEI.10.03</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Instrumentos de gestión implementados en la municipalidad</t>
+          <t>Mantenimiento de caminos vecinales y de herradura permanente en beneficio de la población local</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Porcentaje de instrumentos de gestión actualizados</t>
+          <t>Porcentaje de caminos vecinales en condiciones de transitabilidad</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>Transporte</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>AEI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>AEI.10.04</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Supervisión y control del transporte público con eficiencia y cumplimiento normativo a los operadores de transporte local</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Número de fiscalizaciones a empresas prestadoras del servicio de transporte público en la localidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>Institucional</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>AEI</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>AEI.11.01</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Capacitación para el desarrollo de competencias o conocimientos ejecutadas en beneficio del personal de la municipalidad. </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Porcentaje de acciones de capacitación ejecutadas en el marco del PDP</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>AEI</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>AEI.11.02</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gobierno abierto implementado en la municipalidad </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Porcentaje de actas y acuerdos municipales difundidos en redes sociales y portales web municipales</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>AEI</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>AEI.11.03</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Servicios administrativos implementados eficientemente en la municipalidad</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Porcentaje de expedientes recibidos por mesa de partes atendidos de manera oportuna</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>AEI</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>AEI.11.04</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Recaudación tributaria efectiva en la municipalidad</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Número de campañas municipales para fortalecer la recaudación tributaria en la localidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>AEI</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>AEI.11.05</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Instrumentos de gestión implementados en la municipalidad</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Porcentaje de instrumentos de gestión actualizados</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Institucional</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>AEI</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>AEI.11.06</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>Gobierno digital implementado en los procesos y servicios de la municipalidad</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>Porcentaje de servicios administrativos municipales digitalizados</t>
         </is>
@@ -2382,7 +2597,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Entrega de títulos o constancias de propiedad regularizados a población en situación de informalidad</t>
+          <t>Entrega de títulos o constancias de propiedad regularizados a la población en situación de informalidad</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2441,7 +2656,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Campaña  (código 014)</t>
+          <t>Campaña (código 014)</t>
         </is>
       </c>
     </row>
@@ -2468,7 +2683,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Unidad catastral  (código 197)</t>
+          <t>Unidad catastral (código 197)</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2737,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Fizcalización realizada (código 304)</t>
+          <t>Fiscalización realizada (código 304)</t>
         </is>
       </c>
     </row>
@@ -2900,7 +3115,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Programa(código 446)</t>
+          <t>Programa (código 446)</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3251,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Hectárea  (código 059)</t>
+          <t>Hectárea (código 059)</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3305,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Tecnología  (código 132)</t>
+          <t>Tecnología (código 132)</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3328,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Persona  (código 086)</t>
+          <t>Persona (código 086)</t>
         </is>
       </c>
     </row>
@@ -3162,7 +3377,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Educación y sensibilización a la población en materia de residuos solidos</t>
+          <t>Educación y sensibilización a la población en materia de residuos sólidos</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3297,7 +3512,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recolección, transporte, valorización de residuos de construcción y demolición </t>
+          <t>Recolección, transporte, valorización de residuos de construcción y demolición</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3324,7 +3539,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recolección, transporte y disposicion final de residuos de construcción y demolición </t>
+          <t xml:space="preserve">Recolección, transporte y disposición final de residuos de construcción y demolición </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3351,12 +3566,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Elaboración, ejecución y reporte de instrumentos/ herramientas para la gestión y manejo de resdiduos sólidos</t>
+          <t>Elaboración, ejecución y reporte de instrumentos/ herramientas para la gestión y manejo de residuos sólidos</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Documento  (código 036)</t>
+          <t>Documento (código 036)</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3598,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Documento  (código 036)</t>
+          <t>Documento (código 036)</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3971,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Cpacitación a autoridades locales y personal técnico en GRD.</t>
+          <t>Capacitación a autoridades locales y al personal técnico en GRD.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4085,7 +4300,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Kit entregado (Código 505)</t>
+          <t>Kit entregado (código 505)</t>
         </is>
       </c>
     </row>
@@ -4112,7 +4327,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Unidad de albergue (Código 570)</t>
+          <t>Unidad de albergue (código 570)</t>
         </is>
       </c>
     </row>
@@ -4139,7 +4354,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Persona atendida (Código 087)</t>
+          <t>Persona atendida (código 087)</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4381,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Persona (Código 086)</t>
+          <t>Persona (código 086)</t>
         </is>
       </c>
     </row>
@@ -4193,7 +4408,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Vias (codigo 424)</t>
+          <t>Vías (código 424)</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4435,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sistema de saneamiento (Código 274)</t>
+          <t>Sistema de saneamiento (código 274)</t>
         </is>
       </c>
     </row>
@@ -4274,7 +4489,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Informe (Código 060)</t>
+          <t>Informe (código 060)</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4516,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Proyecto (Código 096)</t>
+          <t>Proyecto (código 096)</t>
         </is>
       </c>
     </row>
@@ -4328,7 +4543,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Informe (Código 060)</t>
+          <t>Informe (código 060)</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4570,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Supervisión  (Código 109)</t>
+          <t>Supervisión (código 109)</t>
         </is>
       </c>
     </row>
@@ -4382,7 +4597,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Informe (Código 060)</t>
+          <t>Informe (código 060)</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4732,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Persona atendida  (código 087)</t>
+          <t>Persona atendida (código 087)</t>
         </is>
       </c>
     </row>
@@ -4544,7 +4759,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Persona atendida  (código 087)</t>
+          <t>Persona atendida (código 087)</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4786,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Persona atendida  (código 087)</t>
+          <t>Persona atendida (código 087)</t>
         </is>
       </c>
     </row>
@@ -4625,7 +4840,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Registro  (código 103)</t>
+          <t>Registro (código 103)</t>
         </is>
       </c>
     </row>
@@ -4809,12 +5024,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Fortalecimiento de comités  con equipamiento básico y capacitación</t>
+          <t>Fortalecimiento de comités con equipamiento básico y capacitación</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Comité de seguridad ciudadana (código 555)</t>
+          <t>Comité de Seguridad Ciudadana (código 555)</t>
         </is>
       </c>
     </row>
@@ -4949,7 +5164,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Instalación  (código 064)</t>
+          <t>Instalación (código 064)</t>
         </is>
       </c>
     </row>
@@ -4976,7 +5191,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Servicio(código 107)</t>
+          <t>Servicio (código 107)</t>
         </is>
       </c>
     </row>
@@ -5003,7 +5218,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Persona capacitada  (código 088)</t>
+          <t>Persona capacitada (código 088)</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5375,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Mantenimiento de los sistemas alcantarillado sanitario o disposición sanitaria de excretas</t>
+          <t>Mantenimiento de los sistemas de alcantarillado sanitario o disposición sanitaria de excretas</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5273,7 +5488,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Evento  (código 117)</t>
+          <t>Evento (código 117)</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5515,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Campaña  (código 014)</t>
+          <t>Campaña (código 014)</t>
         </is>
       </c>
     </row>
@@ -5327,7 +5542,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Persona Capacitada  (código 088)</t>
+          <t>Persona capacitada (código 088)</t>
         </is>
       </c>
     </row>
@@ -5349,12 +5564,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Asesoramiento personalizada en mejora de procesos productivos o formalización</t>
+          <t>Asesoramiento personalizado en mejora de procesos productivos o formalización</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Productor asistido  (código 340)</t>
+          <t>Productor asistido (código 340)</t>
         </is>
       </c>
     </row>
@@ -5381,7 +5596,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Campaña  (código 014)</t>
+          <t>Campaña (código 014)</t>
         </is>
       </c>
     </row>
@@ -5408,7 +5623,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Productor asistido  (código 340)</t>
+          <t>Productor asistido (código 340)</t>
         </is>
       </c>
     </row>
@@ -5435,7 +5650,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Evento  (código 117)</t>
+          <t>Evento (código 117)</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5704,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>155 Porcentaje</t>
+          <t>155 porcentaje</t>
         </is>
       </c>
     </row>
@@ -5538,12 +5753,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Mantenimiento preventivo y correctivo de infraestructura o equipamiento  de riego</t>
+          <t>Mantenimiento preventivo y correctivo de infraestructura o equipamiento de riego</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>455 Mantenimiento</t>
+          <t>455 mantenimiento</t>
         </is>
       </c>
     </row>
@@ -5570,7 +5785,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Instalación  (código 064)</t>
+          <t>Instalación (código 064)</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5812,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Metro lineal  (código 154)</t>
+          <t>Metro lineal (código 154)</t>
         </is>
       </c>
     </row>
@@ -5624,7 +5839,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Supervisión realizada  (código 303)</t>
+          <t>Supervisión realizada (código 303)</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5866,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Taller  (Código 486)</t>
+          <t>Taller (código 486)</t>
         </is>
       </c>
     </row>
@@ -5678,7 +5893,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Campaña  (código 014)</t>
+          <t>Campaña (código 014)</t>
         </is>
       </c>
     </row>
@@ -5705,7 +5920,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Usuario Capacitado (código 031)</t>
+          <t>Usuario capacitado (código 031)</t>
         </is>
       </c>
     </row>
@@ -5786,7 +6001,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Kilómetro  (código 067)</t>
+          <t>Kilómetro (código 067)</t>
         </is>
       </c>
     </row>
@@ -5813,7 +6028,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Supervisión realizada  (código 303)</t>
+          <t>Supervisión realizada (código 303)</t>
         </is>
       </c>
     </row>
@@ -5840,7 +6055,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Vehículo supervisado  (código 283)</t>
+          <t>Vehículo supervisado (código 283)</t>
         </is>
       </c>
     </row>
@@ -5894,7 +6109,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Reclamos resueltos e informac (código 169)</t>
+          <t>Reclamos resueltos e informes (código 169)</t>
         </is>
       </c>
     </row>
@@ -5975,7 +6190,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Trabajador Capacitado  (código 355)</t>
+          <t>Trabajador capacitado (código 355)</t>
         </is>
       </c>
     </row>
@@ -6002,7 +6217,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Informe (Código 060)</t>
+          <t>Informe (código 060)</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6244,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Persona capacitada (Cod. 088)</t>
+          <t>Persona capacitada (código 088)</t>
         </is>
       </c>
     </row>
@@ -6056,7 +6271,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Evento  (código 117)</t>
+          <t>Evento (código 117)</t>
         </is>
       </c>
     </row>
@@ -6164,7 +6379,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Documento  (código 036)</t>
+          <t>Documento (código 036)</t>
         </is>
       </c>
     </row>
@@ -6218,7 +6433,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Proceso (Cod.533)</t>
+          <t>Proceso (código 533)</t>
         </is>
       </c>
     </row>
@@ -6245,7 +6460,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Evaluación (Cod.047)</t>
+          <t>Evaluación (código 047)</t>
         </is>
       </c>
     </row>
@@ -6434,7 +6649,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Expediente Tramitado (código 055)</t>
+          <t>Expediente tramitado (código 055)</t>
         </is>
       </c>
     </row>
@@ -6457,7 +6672,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Informe Técnico (código 201)</t>
+          <t>Informe técnico (código 201)</t>
         </is>
       </c>
     </row>
@@ -6565,7 +6780,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Trabajador Capacitado  (código 355)</t>
+          <t>Trabajador capacitado (código 355)</t>
         </is>
       </c>
     </row>
@@ -6619,7 +6834,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Sistema  (código 108)</t>
+          <t>Sistema (código 108)</t>
         </is>
       </c>
     </row>
@@ -6646,7 +6861,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Sistema  (código 108)</t>
+          <t>Sistema (código 108)</t>
         </is>
       </c>
     </row>
@@ -6673,7 +6888,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sistema  (código 108)</t>
+          <t>Sistema (código 108)</t>
         </is>
       </c>
     </row>
@@ -6700,7 +6915,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Trabajador Capacitado  (código 355)</t>
+          <t>Trabajador capacitado (código 355)</t>
         </is>
       </c>
     </row>
